--- a/reporteproductosstock.xlsx
+++ b/reporteproductosstock.xlsx
@@ -411,16 +411,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2">
-        <v>542</v>
+        <v>32955</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
